--- a/atom01_mechnaic/atom-bom/BOM表（不含线缆）.xlsx
+++ b/atom01_mechnaic/atom-bom/BOM表（不含线缆）.xlsx
@@ -1,25 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wsy\OneDrive\Desktop\Atom总BOM\BOM表\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09319534-7580-4704-A42D-589FB07D14F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="18696" xr2:uid="{958CD723-E75D-4B5A-ACFB-736AF3CFEA4A}"/>
+    <workbookView windowWidth="10800" windowHeight="9555"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
@@ -27,6 +18,8 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -34,45 +27,48 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="62">
   <si>
     <t>机加件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>序号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>材质</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>加工工艺</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>数目</t>
   </si>
   <si>
-    <t>数目</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>有无螺纹</t>
+  </si>
+  <si>
+    <t>加工精度要求</t>
   </si>
   <si>
     <t>atom手臂 - 副本 (1)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>7075铝合金</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CNC/120目喷砂/阳极氧化（黑色/本色）</t>
+  </si>
+  <si>
+    <t>有</t>
+  </si>
+  <si>
+    <t>±0.1</t>
   </si>
   <si>
     <t>atom手臂 - 副本 (2)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>atom手臂 - 副本 (3)</t>
@@ -81,209 +77,315 @@
     <t>atom手臂 - 副本 (4)</t>
   </si>
   <si>
+    <t>无</t>
+  </si>
+  <si>
     <t>IMU载板</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>侧板横板</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>大腿内测</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>±0.05</t>
   </si>
   <si>
     <t>电池底盖</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>肩膀</t>
+  </si>
+  <si>
+    <t>脚底板</t>
+  </si>
+  <si>
+    <t>脚底连杆</t>
+  </si>
+  <si>
+    <t>脚踝横滚连接件</t>
+  </si>
+  <si>
+    <t>髋关节固定</t>
+  </si>
+  <si>
+    <t>髋夹板</t>
+  </si>
+  <si>
+    <t>输出法兰连杆</t>
+  </si>
+  <si>
+    <t>通用连接件</t>
+  </si>
+  <si>
+    <t>通用连接件扩孔法兰</t>
+  </si>
+  <si>
+    <t>小腿</t>
+  </si>
+  <si>
+    <t>胸腔前后夹板</t>
+  </si>
+  <si>
+    <t>限位销</t>
+  </si>
+  <si>
+    <t>6061铝合金</t>
+  </si>
+  <si>
+    <t>小腿轴承锁</t>
+  </si>
+  <si>
+    <t>腰部支撑</t>
+  </si>
+  <si>
+    <t>长连杆</t>
+  </si>
+  <si>
+    <t>45钢</t>
   </si>
   <si>
     <t>短连杆</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>45钢</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>肩膀</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>脚底板</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>脚底连杆</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>脚踝横滚连接件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>髋关节固定</t>
-  </si>
-  <si>
-    <t>髋夹板</t>
-  </si>
-  <si>
-    <t>CNC/120目喷砂/阳极氧化（黑色/本色）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>输出法兰连杆</t>
-  </si>
-  <si>
-    <t>通用连接件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>通用连接件扩孔法兰</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>限位销</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6061铝合金</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>有无螺纹</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>有</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>无</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>加工精度要求</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>±0.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>±0.05</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小腿</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小腿轴承锁</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>胸腔前后夹板</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>腰部支撑</t>
-  </si>
-  <si>
-    <t>长连杆</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>标准件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>GB╱T 70.1-2008[内六角圆柱头螺钉M3×6]</t>
   </si>
   <si>
+    <t>GB╱T 70.1-2008[内六角圆柱头螺钉M3×8]</t>
+  </si>
+  <si>
     <t>GB╱T 70.1-2008[内六角圆柱头螺钉M3×10]</t>
   </si>
   <si>
-    <t>GB╱T 70.1-2008[内六角圆柱头螺钉M3×8]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>GB╱T 70.1-2008[内六角圆柱头螺钉M3×12]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>GB╱T 70.1-2008[内六角圆柱头螺钉M3×16]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>GB╱T 70.1-2008[内六角圆柱头螺钉M4×8]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>GB╱T 70.1-2008[内六角圆柱头螺钉M4×10]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>GB╱T 70.1-2008[内六角圆柱头螺钉M4×12]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>GB╱T 70.1-2008[内六角圆柱头螺钉M4×16]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>GB╱T 70.1-2008[内六角圆柱头螺钉M5×10]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>平头M4x10螺丝</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>平头M5x10螺丝</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>平头M5x16螺丝</t>
   </si>
   <si>
     <t>滚动轴承130*165*18</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>GB╱T 9163-2001[向心关节轴承（G系列）8]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>GB╱T 4605-2003[推力滚针和保持架组件AXK6085]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>线束</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wire01(xt30_2+2-xt30+gh1.25) 15cm</t>
+  </si>
+  <si>
+    <t>Wire01(xt30_2+2-xt30+gh1.25) 20cm</t>
+  </si>
+  <si>
+    <t>Wire02(xt30_2+2-xt30_2+2) 15cm</t>
+  </si>
+  <si>
+    <t>Wire03(xt30+gh1.25-xt30+gh1.25)20cm</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -296,8 +398,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -305,9 +593,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -319,17 +849,61 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -378,7 +952,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -411,26 +985,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -463,23 +1020,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -621,37 +1161,32 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED5A3DD0-9449-4097-B039-0757FC663CEB}">
-  <dimension ref="A1:G45"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A46" sqref="A46"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.85" outlineLevelCol="6"/>
   <cols>
-    <col min="2" max="2" width="46.5546875" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" customWidth="1"/>
+    <col min="2" max="2" width="46.5575221238938" customWidth="1"/>
+    <col min="3" max="3" width="12.6637168141593" customWidth="1"/>
     <col min="4" max="4" width="36" customWidth="1"/>
-    <col min="7" max="7" width="14.77734375" customWidth="1"/>
+    <col min="7" max="7" width="14.7787610619469" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -665,573 +1200,573 @@
         <v>4</v>
       </c>
       <c r="E2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" t="s">
         <v>6</v>
       </c>
-      <c r="F2" t="s">
-        <v>30</v>
-      </c>
       <c r="G2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="E3">
         <v>4</v>
       </c>
       <c r="F3" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="G3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="E4">
         <v>4</v>
       </c>
       <c r="F4" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="G4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="E5">
         <v>4</v>
       </c>
       <c r="F5" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="G5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="E6">
         <v>4</v>
       </c>
       <c r="F6" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="G6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="E7">
         <v>1</v>
       </c>
       <c r="F7" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="G7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="E8">
         <v>2</v>
       </c>
       <c r="F8" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="G8" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="E9">
         <v>2</v>
       </c>
       <c r="F9" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="G9" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="E10">
         <v>1</v>
       </c>
       <c r="F10" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="G10" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="E11">
         <v>2</v>
       </c>
       <c r="F11" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="G11" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="E12">
         <v>2</v>
       </c>
       <c r="F12" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="G12" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="E13">
         <v>2</v>
       </c>
       <c r="F13" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="G13" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="E14">
         <v>4</v>
       </c>
       <c r="F14" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="G14" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="E15">
         <v>1</v>
       </c>
       <c r="F15" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="G15" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="E16">
         <v>2</v>
       </c>
       <c r="F16" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="G16" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="E17">
         <v>4</v>
       </c>
       <c r="F17" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="G17" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="E18">
         <v>4</v>
       </c>
       <c r="F18" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="G18" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="E19">
         <v>4</v>
       </c>
       <c r="F19" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="G19" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="E20">
         <v>2</v>
       </c>
       <c r="F20" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="G20" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="E21">
         <v>2</v>
       </c>
       <c r="F21" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="G21" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D22" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="E22">
         <v>8</v>
       </c>
       <c r="F22" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="G22" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C23" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D23" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="E23">
         <v>4</v>
       </c>
       <c r="F23" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="G23" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C24" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D24" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="E24">
         <v>1</v>
       </c>
       <c r="F24" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="G24" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="D25" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="E25">
         <v>2</v>
       </c>
       <c r="F25" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="G25" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="C26" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="D26" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="E26">
         <v>2</v>
       </c>
       <c r="F26" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="G26" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
       <c r="A27" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
       <c r="A28" t="s">
         <v>1</v>
       </c>
@@ -1242,29 +1777,29 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3">
       <c r="A29">
         <v>1</v>
       </c>
       <c r="B29" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C29">
         <v>15</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3">
       <c r="A30">
         <v>2</v>
       </c>
       <c r="B30" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C30">
         <v>45</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3">
       <c r="A31">
         <v>3</v>
       </c>
@@ -1275,156 +1810,212 @@
         <v>62</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3">
       <c r="A32">
         <v>4</v>
       </c>
       <c r="B32" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C32">
         <v>21</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3">
       <c r="A33">
         <v>5</v>
       </c>
       <c r="B33" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C33">
         <v>92</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3">
       <c r="A34">
         <v>6</v>
       </c>
       <c r="B34" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C34">
         <v>158</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3">
       <c r="A35">
         <v>7</v>
       </c>
       <c r="B35" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C35">
         <v>67</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3">
       <c r="A36">
         <v>8</v>
       </c>
       <c r="B36" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C36">
         <v>56</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3">
       <c r="A37">
         <v>9</v>
       </c>
       <c r="B37" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C37">
         <v>20</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3">
       <c r="A38">
         <v>10</v>
       </c>
       <c r="B38" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C38">
         <v>63</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3">
       <c r="A39">
         <v>11</v>
       </c>
       <c r="B39" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C39">
         <v>83</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3">
       <c r="A40">
         <v>12</v>
       </c>
       <c r="B40" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C40">
         <v>12</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3">
       <c r="A41">
         <v>13</v>
       </c>
       <c r="B41" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C41">
         <v>25</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3">
       <c r="A42">
         <v>14</v>
       </c>
       <c r="B42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C42">
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3">
       <c r="A43">
         <v>15</v>
       </c>
       <c r="B43" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C43">
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3">
       <c r="A44">
         <v>16</v>
       </c>
       <c r="B44" t="s">
+        <v>56</v>
+      </c>
+      <c r="C44">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C44">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" t="s">
+        <v>1</v>
+      </c>
+      <c r="B46" t="s">
+        <v>2</v>
+      </c>
+      <c r="C46" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47">
+        <v>1</v>
+      </c>
+      <c r="B47" t="s">
         <v>58</v>
       </c>
-    </row>
+      <c r="C47">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" customFormat="1" spans="1:3">
+      <c r="A48">
+        <v>2</v>
+      </c>
+      <c r="B48" t="s">
+        <v>59</v>
+      </c>
+      <c r="C48">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49">
+        <v>3</v>
+      </c>
+      <c r="B49" t="s">
+        <v>60</v>
+      </c>
+      <c r="C49">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50">
+        <v>4</v>
+      </c>
+      <c r="B50" t="s">
+        <v>61</v>
+      </c>
+      <c r="C50">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51" ht="14" customHeight="1"/>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>